--- a/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
+++ b/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.45</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,25 +634,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>150968</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>银河研究精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>150968</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河研究精选混合</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>519644</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>银河智联主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010898</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河产业动力混合</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.68</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519644</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河智联主题灵活配置混合</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>95.13</t>
-        </is>
-      </c>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
+++ b/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -984,7 +985,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -1000,6 +1000,138 @@
       </c>
       <c r="H11" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
+++ b/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1137,4 +1138,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
+++ b/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
@@ -1162,12 +1162,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
+++ b/数据整理/stocks/A股/上证主板/603330-上海天洋.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,133 +453,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>150968</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河研究精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4126</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519644</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河智联主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0856</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1008,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1016,210 +1100,126 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>150968</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>银河研究精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>89.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1516</t>
+          <t>0.4126</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>519644</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>银河智联主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>90.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>